--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,8 +19,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -65,12 +65,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -436,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,8 +488,8 @@
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>44351.47262681317</v>
+      <c r="B2" s="3" t="n">
+        <v>44351.47262681713</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -508,6 +509,35 @@
       </c>
       <c r="G2" t="n">
         <v>4.545494816666666</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>44354.7890109375</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>regression_145final</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>159</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.394715283333333</v>
       </c>
     </row>
   </sheetData>
@@ -521,7 +551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +594,35 @@
         <is>
           <t>Time Taken</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>44355.69640125916</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>145_beta</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>165</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.942745333333334</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -1440,15 +1440,15 @@
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="6">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>2021-06-16</t>
         </is>
       </c>
       <c r="B12" s="10" t="n">
-        <v>44363.80596669525</v>
-      </c>
-      <c r="C12" t="inlineStr">
+        <v>44363.80596668981</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>live_145_hf2</t>
         </is>
@@ -1456,23 +1456,69 @@
       <c r="D12" s="9" t="n">
         <v>165</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="5" t="n">
         <v>161</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="5" t="n">
         <v>4.74</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="6">
-      <c r="B13" s="8" t="n"/>
-      <c r="D13" s="9" t="n"/>
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>44364.57609354167</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>145_data_hstry</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>165</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>164</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>4.91</v>
+      </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="6">
-      <c r="B14" s="8" t="n"/>
-      <c r="D14" s="9" t="n"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44364.60561181853</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>145_hstry_data</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>165</v>
+      </c>
+      <c r="E14" t="n">
+        <v>164</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.95</v>
+      </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="6">
       <c r="B15" s="8" t="n"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -95,7 +96,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -127,6 +128,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,29 +762,29 @@
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="6">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
       <c r="B10" s="10" t="n">
-        <v>44365.5304355025</v>
-      </c>
-      <c r="C10" t="inlineStr">
+        <v>44365.53043549768</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>145_fnltstfrdy</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>165</v>
-      </c>
-      <c r="E10" t="n">
-        <v>165</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="D10" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="5" t="n">
         <v>4.36</v>
       </c>
     </row>
@@ -1186,7 +1188,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1455,6 +1457,33 @@
       </c>
       <c r="G9" s="5" t="n">
         <v>6.48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2021-06-18</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>44365.77938478678</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>145_lstrnfdy</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>165</v>
+      </c>
+      <c r="E10" t="n">
+        <v>165</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.89</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,10 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -789,31 +788,193 @@
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="6">
-      <c r="B11" s="8" t="n"/>
-      <c r="D11" s="9" t="n"/>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>44368.72572730324</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>145_mndyto</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>165</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>4.31</v>
+      </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="6">
-      <c r="B12" s="8" t="n"/>
-      <c r="D12" s="9" t="n"/>
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-24</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>44371.76280440972</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>146_fsttst</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>165</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>4.44</v>
+      </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="6">
-      <c r="B13" s="8" t="n"/>
-      <c r="D13" s="9" t="n"/>
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-25</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>44372.71386109954</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>146_replica</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>165</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>159</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>6.43</v>
+      </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="6">
-      <c r="B14" s="8" t="n"/>
-      <c r="D14" s="9" t="n"/>
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44375.55859493055</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>146_thrdcycle</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>165</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>5.42</v>
+      </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="6">
-      <c r="B15" s="8" t="n"/>
-      <c r="D15" s="9" t="n"/>
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44375.73968922454</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>146_rgrsncycle</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>165</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.66</v>
+      </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="6">
-      <c r="A16" s="8" t="n"/>
-      <c r="B16" s="8" t="n"/>
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44376.27535215278</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>146_finalrun</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>159</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>5.55</v>
+      </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="6">
-      <c r="B17" s="8" t="n"/>
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>44376.32676365741</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>146_finalrun</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>5.19</v>
+      </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="6">
       <c r="B18" s="8" t="n"/>
@@ -1149,7 +1310,31 @@
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="6">
-      <c r="B10" s="8" t="n"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>44376.59767600154</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>146_beta</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>165</v>
+      </c>
+      <c r="E10" t="n">
+        <v>165</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.46</v>
+      </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="6">
       <c r="B11" s="8" t="n"/>
@@ -1188,7 +1373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1460,30 +1645,57 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
       <c r="B10" s="11" t="n">
-        <v>44365.77938478678</v>
-      </c>
-      <c r="C10" t="inlineStr">
+        <v>44365.77938479167</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>145_lstrnfdy</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>165</v>
-      </c>
-      <c r="E10" t="n">
-        <v>165</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="D10" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="5" t="n">
         <v>4.89</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-22</t>
+        </is>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>44369.80662284722</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>145_hotfixtue</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>4.98</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -977,10 +978,58 @@
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="6">
-      <c r="B18" s="8" t="n"/>
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-05</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>44382.67633565972</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>146_htfrplica</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>5.43</v>
+      </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="6">
-      <c r="B19" s="8" t="n"/>
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-06</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>44383.77039702547</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>146_infrachngs</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>4.61</v>
+      </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="6">
       <c r="B20" s="8" t="n"/>
@@ -1310,29 +1359,29 @@
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="6">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>2021-06-29</t>
         </is>
       </c>
       <c r="B10" s="10" t="n">
-        <v>44376.59767600154</v>
-      </c>
-      <c r="C10" t="inlineStr">
+        <v>44376.59767600695</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>146_beta</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>165</v>
-      </c>
-      <c r="E10" t="n">
-        <v>165</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="D10" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="5" t="n">
         <v>5.46</v>
       </c>
     </row>
@@ -1373,7 +1422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1696,6 +1745,87 @@
       </c>
       <c r="G11" s="5" t="n">
         <v>4.98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B12" s="11" t="n">
+        <v>44376.86607328703</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>146_livetst</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-02</t>
+        </is>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>44379.66474395833</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>146_infrachngs</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2021-07-08</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>44385.34297444419</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>146_earlyip</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>165</v>
+      </c>
+      <c r="E14" t="n">
+        <v>163</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.59</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,10 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1032,16 +1031,112 @@
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="6">
-      <c r="B20" s="8" t="n"/>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-20</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>44397.73514952546</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>147_firsttest</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>5.24</v>
+      </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="6">
-      <c r="B21" s="8" t="n"/>
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>44399.65719601852</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>147_tolive</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>160</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>6.65</v>
+      </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="6">
-      <c r="B22" s="8" t="n"/>
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2021-08-14</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>44422.5856178125</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>148_regression</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>148</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>7.98</v>
+      </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="6">
-      <c r="B23" s="8" t="n"/>
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2021-10-06</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>44475.71821445602</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>151_regression</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>163</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>5.26</v>
+      </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="6">
       <c r="B24" s="8" t="n"/>
@@ -1386,12 +1481,58 @@
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="6">
-      <c r="B11" s="8" t="n"/>
-      <c r="D11" s="9" t="n"/>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2021-08-16</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>44424.55388305555</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>148_beta</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>165</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>9.91</v>
+      </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="6">
-      <c r="B12" s="8" t="n"/>
-      <c r="D12" s="9" t="n"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2021-10-07</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>44476.57714602538</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>151_beta</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>165</v>
+      </c>
+      <c r="E12" t="n">
+        <v>164</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.83</v>
+      </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="6">
       <c r="B13" s="8" t="n"/>
@@ -1422,7 +1563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1802,30 +1943,57 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>2021-07-08</t>
         </is>
       </c>
       <c r="B14" s="11" t="n">
-        <v>44385.34297444419</v>
-      </c>
-      <c r="C14" t="inlineStr">
+        <v>44385.34297444444</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>146_earlyip</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>165</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E14" s="5" t="n">
         <v>163</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="5" t="n">
         <v>5.59</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2021-09-28</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>44467.69446768519</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>150htfxwe</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.96</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -1139,10 +1139,58 @@
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="6">
-      <c r="B24" s="8" t="n"/>
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2021-10-26</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>44495.66360493055</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>152_fstcycle</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>5.85</v>
+      </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="6">
-      <c r="B25" s="8" t="n"/>
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>44497.40206644676</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>152_fnlrgrsn</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>5.85</v>
+      </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="6">
       <c r="B26" s="8" t="n"/>
@@ -1508,15 +1556,15 @@
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="6">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>2021-10-07</t>
         </is>
       </c>
       <c r="B12" s="10" t="n">
-        <v>44476.57714602538</v>
-      </c>
-      <c r="C12" t="inlineStr">
+        <v>44476.57714603009</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>151_beta</t>
         </is>
@@ -1524,19 +1572,42 @@
       <c r="D12" s="9" t="n">
         <v>165</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="5" t="n">
         <v>164</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="5" t="n">
         <v>4.83</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="6">
-      <c r="B13" s="8" t="n"/>
-      <c r="D13" s="9" t="n"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>44497.70106781789</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>152_betachgs</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>165</v>
+      </c>
+      <c r="E13" t="n">
+        <v>165</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.69</v>
+      </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="6">
       <c r="B14" s="8" t="n"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -489,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
@@ -1193,28 +1194,302 @@
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="6">
-      <c r="B26" s="8" t="n"/>
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-17</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>44517.63557819444</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>153rsgn</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>8.630000000000001</v>
+      </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="6">
-      <c r="B27" s="8" t="n"/>
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-18</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>44518.44087712963</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>153fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>4.58</v>
+      </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="6">
-      <c r="B28" s="8" t="n"/>
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-03</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>44533.7258246412</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>154_scndrgsn</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>4.88</v>
+      </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="6">
-      <c r="B29" s="8" t="n"/>
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>44536.49264707176</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>154_fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>140</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>11.24</v>
+      </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="6">
-      <c r="B30" s="8" t="n"/>
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>44553.45575266203</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>155_fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>5.15</v>
+      </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="6">
-      <c r="B31" s="8" t="n"/>
-    </row>
-    <row r="32" ht="13.8" customHeight="1" s="6"/>
-    <row r="33" ht="13.8" customHeight="1" s="6"/>
-    <row r="34" ht="13.8" customHeight="1" s="6"/>
-    <row r="35" ht="13.8" customHeight="1" s="6"/>
-    <row r="36" ht="13.8" customHeight="1" s="6"/>
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-03</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>44564.64068576389</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>lodash</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="32" ht="13.8" customHeight="1" s="6">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-19</t>
+        </is>
+      </c>
+      <c r="B32" s="11" t="n">
+        <v>44580.77866675926</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>165_secondcyc</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="33" ht="13.8" customHeight="1" s="6">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B33" s="11" t="n">
+        <v>44581.40927736111</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>156_fnlrsgn</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="34" ht="13.8" customHeight="1" s="6">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+      <c r="B34" s="11" t="n">
+        <v>44589.59526040509</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>156audit</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="35" ht="13.8" customHeight="1" s="6">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2022-02-07</t>
+        </is>
+      </c>
+      <c r="B35" s="11" t="n">
+        <v>44599.79378355324</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>secondcycle_157</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>164</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="36" ht="13.8" customHeight="1" s="6">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B36" s="11" t="n">
+        <v>44600.43091326389</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>157_fnl</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>163</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>5.46</v>
+      </c>
+    </row>
     <row r="37" ht="13.8" customHeight="1" s="6"/>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
@@ -1230,7 +1505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1583,15 +1858,15 @@
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="6">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>2021-10-28</t>
         </is>
       </c>
       <c r="B13" s="10" t="n">
-        <v>44497.70106781789</v>
-      </c>
-      <c r="C13" t="inlineStr">
+        <v>44497.7010678125</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>152_betachgs</t>
         </is>
@@ -1599,26 +1874,150 @@
       <c r="D13" s="9" t="n">
         <v>165</v>
       </c>
-      <c r="E13" t="n">
-        <v>165</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="E13" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
         <v>5.69</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="6">
-      <c r="B14" s="8" t="n"/>
-      <c r="D14" s="9" t="n"/>
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-18</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44518.59139525463</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>153_beta</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>165</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>163</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>5.71</v>
+      </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="6">
-      <c r="B15" s="8" t="n"/>
-      <c r="D15" s="9" t="n"/>
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44536.5458297338</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>154_beta</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>165</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>5.12</v>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="6">
-      <c r="B16" s="8" t="n"/>
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44553.52912163195</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>155_beta</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>163</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>44581.54422282407</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>156_beta</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="n">
+        <v>44600.65320070602</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>157_beta</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>6.35</v>
+      </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
@@ -1634,7 +2033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2065,6 +2464,168 @@
       </c>
       <c r="G15" s="5" t="n">
         <v>4.96</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-23</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>44523.45320978009</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>153_live</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>44536.877455625</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>154_live</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="n">
+        <v>44553.81332127315</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>155_live</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-27</t>
+        </is>
+      </c>
+      <c r="B19" s="11" t="n">
+        <v>44557.71398495371</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>155hftfxx</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>44581.82589251157</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>156_live</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>44600.87381091827</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>157_live</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>165</v>
+      </c>
+      <c r="E21" t="n">
+        <v>158</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
@@ -1490,7 +1490,249 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="37" ht="13.8" customHeight="1" s="6"/>
+    <row r="37" ht="13.8" customHeight="1" s="6">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="B37" s="11" t="n">
+        <v>44622.69243637731</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>158scndcycle</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>44623.4419815625</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>158fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-24</t>
+        </is>
+      </c>
+      <c r="B39" s="11" t="n">
+        <v>44644.73258695602</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>159fstcycle</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B40" s="11" t="n">
+        <v>44648.43385283565</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>159fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-29</t>
+        </is>
+      </c>
+      <c r="B41" s="11" t="n">
+        <v>44649.71101107639</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>nearlocationcloud</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="B42" s="11" t="n">
+        <v>44650.52460962963</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>160coludtest</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>159</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="B43" s="11" t="n">
+        <v>44659.65381813658</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>160fnlcould</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="B44" s="11" t="n">
+        <v>44659.74565907408</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>160fnlcould</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B45" s="11" t="n">
+        <v>44663.41060195602</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>160fnltest</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1505,7 +1747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2019,6 +2261,114 @@
         <v>6.35</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B19" s="11" t="n">
+        <v>44623.54923115741</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>158_beta</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>44648.56870188657</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>159beta</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>44648.84605592593</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>159beta</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>44663.56621454861</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>160_beta</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2033,7 +2383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2602,30 +2952,138 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>2022-02-08</t>
         </is>
       </c>
       <c r="B21" s="11" t="n">
-        <v>44600.87381091827</v>
-      </c>
-      <c r="C21" t="inlineStr">
+        <v>44600.87381091435</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>157_live</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>165</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E21" s="5" t="n">
         <v>158</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="5" t="n">
         <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>44623.86058452546</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>158_live</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>158</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="n">
+        <v>44648.83042412037</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>159live</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B24" s="11" t="n">
+        <v>44663.82316207176</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>160_live</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B25" s="11" t="n">
+        <v>44663.82656872575</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>160_live</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>165</v>
+      </c>
+      <c r="E25" t="n">
+        <v>165</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
@@ -1733,6 +1733,168 @@
         <v>5.01</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="B46" s="11" t="n">
+        <v>44736.69005418981</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>163_flowwiintt</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="B47" s="11" t="n">
+        <v>44739.70859539352</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>163_finalrun</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B48" s="11" t="n">
+        <v>44740.34899452546</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>163_relday</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B49" s="11" t="n">
+        <v>44755.43334685185</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>164_fstcycle</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B50" s="11" t="n">
+        <v>44755.61747885417</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>164_scndcycle</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B51" s="11" t="n">
+        <v>44756.50451521991</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>164finalrun</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1747,7 +1909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2369,6 +2531,60 @@
         <v>4.66</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="n">
+        <v>44740.52578753472</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>163_beta</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B24" s="11" t="n">
+        <v>44756.54320311343</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>164_beta</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>4.76</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2383,7 +2599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3060,30 +3276,84 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>2022-04-12</t>
         </is>
       </c>
       <c r="B25" s="11" t="n">
-        <v>44663.82656872575</v>
-      </c>
-      <c r="C25" t="inlineStr">
+        <v>44663.82656872685</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>160_live</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>165</v>
-      </c>
-      <c r="E25" t="n">
-        <v>165</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="D25" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
         <v>4.7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B26" s="11" t="n">
+        <v>44740.85856928241</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>163_live</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>160</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B27" s="11" t="n">
+        <v>44756.81726386602</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>164_live</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>165</v>
+      </c>
+      <c r="E27" t="n">
+        <v>165</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.63</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
@@ -1895,6 +1895,141 @@
         <v>4.29</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="B52" s="11" t="n">
+        <v>44775.65561364583</v>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>165_fstcycle</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="B53" s="11" t="n">
+        <v>44776.66674120371</v>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>165_scndcycle</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>33.28</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B54" s="11" t="n">
+        <v>44777.38928859954</v>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>165_finalrun</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="B55" s="11" t="n">
+        <v>44795.66193466435</v>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>166fstcycle</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="B56" s="11" t="n">
+        <v>44796.90335474537</v>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>166cyclescnd</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>4.47</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1909,7 +2044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2585,6 +2720,60 @@
         <v>4.76</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B25" s="11" t="n">
+        <v>44777.55889136574</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>165beta</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B26" s="11" t="n">
+        <v>44797.53743711806</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>166_beta</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2599,7 +2788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3330,30 +3519,84 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>2022-07-14</t>
         </is>
       </c>
       <c r="B27" s="11" t="n">
-        <v>44756.81726386602</v>
-      </c>
-      <c r="C27" t="inlineStr">
+        <v>44756.81726386574</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>164_live</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>165</v>
-      </c>
-      <c r="E27" t="n">
-        <v>165</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="D27" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="n">
         <v>4.63</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>44777.81277537037</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>165_live</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B29" s="11" t="n">
+        <v>44797.91952252982</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>166_live</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>165</v>
+      </c>
+      <c r="E29" t="n">
+        <v>165</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.69</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
@@ -2030,6 +2030,114 @@
         <v>4.47</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
+      </c>
+      <c r="B57" s="11" t="n">
+        <v>44816.630815625</v>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>ecstest167</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>160</v>
+      </c>
+      <c r="F57" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B58" s="11" t="n">
+        <v>44820.61662844908</v>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>fstcyc167</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B59" s="11" t="n">
+        <v>44823.67002711805</v>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>scndcycle167</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5" t="n">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B60" s="11" t="n">
+        <v>44824.37393716435</v>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>finalrun167</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2044,7 +2152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2772,6 +2880,33 @@
       </c>
       <c r="G26" s="5" t="n">
         <v>4.8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B27" s="11" t="n">
+        <v>44824.51937888345</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>beta167</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>165</v>
+      </c>
+      <c r="E27" t="n">
+        <v>165</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.68</v>
       </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
@@ -3573,29 +3708,29 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>2022-08-24</t>
         </is>
       </c>
       <c r="B29" s="11" t="n">
-        <v>44797.91952252982</v>
-      </c>
-      <c r="C29" t="inlineStr">
+        <v>44797.91952253472</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>166_live</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>165</v>
-      </c>
-      <c r="E29" t="n">
-        <v>165</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="D29" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="n">
         <v>4.69</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
@@ -2138,6 +2138,141 @@
         <v>4.98</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
+      </c>
+      <c r="B61" s="11" t="n">
+        <v>44844.67340122685</v>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>scndcycl168</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B62" s="11" t="n">
+        <v>44845.45546761574</v>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>168fnlrun</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="B63" s="11" t="n">
+        <v>44867.68748025463</v>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>scndcycle169</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B64" s="11" t="n">
+        <v>44868.4534728588</v>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>finalrun169</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
+      </c>
+      <c r="B65" s="11" t="n">
+        <v>44893.45723325173</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>170cyclefst</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>165</v>
+      </c>
+      <c r="E65" t="n">
+        <v>165</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2152,7 +2287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2883,30 +3018,84 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>2022-09-20</t>
         </is>
       </c>
       <c r="B27" s="11" t="n">
-        <v>44824.51937888345</v>
-      </c>
-      <c r="C27" t="inlineStr">
+        <v>44824.51937888889</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>beta167</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>165</v>
-      </c>
-      <c r="E27" t="n">
-        <v>165</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="D27" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="n">
         <v>4.68</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>44845.55415269676</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>beta168</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B29" s="11" t="n">
+        <v>44868.53364119213</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>beta169</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>4.76</v>
       </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
@@ -2923,7 +3112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3732,6 +3921,114 @@
       </c>
       <c r="G29" s="5" t="n">
         <v>4.69</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B30" s="11" t="n">
+        <v>44824.87589763889</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>live167</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-06</t>
+        </is>
+      </c>
+      <c r="B31" s="11" t="n">
+        <v>44840.92520859954</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>htfxthu167</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B32" s="11" t="n">
+        <v>44845.85296458333</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>live168</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>163</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B33" s="11" t="n">
+        <v>44868.84110722222</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>live169</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>4.82</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
@@ -2247,30 +2247,111 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="5" t="inlineStr">
         <is>
           <t>2022-11-28</t>
         </is>
       </c>
       <c r="B65" s="11" t="n">
-        <v>44893.45723325173</v>
-      </c>
-      <c r="C65" t="inlineStr">
+        <v>44893.45723325232</v>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
         <is>
           <t>170cyclefst</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>165</v>
-      </c>
-      <c r="E65" t="n">
-        <v>165</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
+      <c r="D65" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F65" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5" t="n">
         <v>4.2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="B66" s="11" t="n">
+        <v>44914.49356978009</v>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>finalrun171</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B67" s="11" t="n">
+        <v>44945.69319724537</v>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>scnd172release</t>
+        </is>
+      </c>
+      <c r="D67" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>157</v>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" s="5" t="n">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B68" s="11" t="n">
+        <v>44946.41021966435</v>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>finalrun172</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>160</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>4.23</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
@@ -2287,7 +2368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3098,6 +3179,60 @@
         <v>4.76</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B30" s="11" t="n">
+        <v>44894.54324644676</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>170beta</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B31" s="11" t="n">
+        <v>44946.58566266204</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>172beta</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3112,7 +3247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4029,6 +4164,60 @@
       </c>
       <c r="G33" s="5" t="n">
         <v>4.82</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B34" s="11" t="n">
+        <v>44894.88804502314</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>170live</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B35" s="11" t="n">
+        <v>44946.90298325312</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>172live</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>165</v>
+      </c>
+      <c r="E35" t="n">
+        <v>165</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.29</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
@@ -2354,6 +2354,60 @@
         <v>4.23</v>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B69" s="11" t="n">
+        <v>44974.44609393518</v>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>173cyclefst</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="F69" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G69" s="5" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B70" s="11" t="n">
+        <v>44977.41867780092</v>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>173fnlrun</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E70" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="F70" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2368,7 +2422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3233,6 +3287,33 @@
         <v>5.11</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B32" s="11" t="n">
+        <v>44977.60197702546</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>173beta</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>5.12</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3247,7 +3328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4194,30 +4275,57 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>2023-01-20</t>
         </is>
       </c>
       <c r="B35" s="11" t="n">
-        <v>44946.90298325312</v>
-      </c>
-      <c r="C35" t="inlineStr">
+        <v>44946.90298325232</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>172live</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>165</v>
-      </c>
-      <c r="E35" t="n">
-        <v>165</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="D35" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
         <v>5.29</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B36" s="11" t="n">
+        <v>44977.84599061837</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>live173</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>165</v>
+      </c>
+      <c r="E36" t="n">
+        <v>165</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.45</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
@@ -2408,6 +2408,114 @@
         <v>4.39</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
+      </c>
+      <c r="B71" s="11" t="n">
+        <v>44995.80265944445</v>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>174ffiinnalrun</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E71" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="F71" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G71" s="5" t="n">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B72" s="11" t="n">
+        <v>44998.47240579861</v>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>174finalrun</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="F72" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B73" s="11" t="n">
+        <v>45016.47215266203</v>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>175fnlrun</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>156</v>
+      </c>
+      <c r="F73" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G73" s="5" t="n">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="B74" s="11" t="n">
+        <v>45028.7219215049</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>176fstrtail</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>165</v>
+      </c>
+      <c r="E74" t="n">
+        <v>165</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2422,7 +2530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3314,6 +3422,60 @@
         <v>5.12</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B33" s="11" t="n">
+        <v>44998.54521554398</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>174beta</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B34" s="11" t="n">
+        <v>45016.5515381713</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>175beta</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>4.77</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3328,7 +3490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4302,30 +4464,138 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
       <c r="B36" s="11" t="n">
-        <v>44977.84599061837</v>
-      </c>
-      <c r="C36" t="inlineStr">
+        <v>44977.84599061342</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>live173</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>165</v>
-      </c>
-      <c r="E36" t="n">
-        <v>165</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="D36" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
         <v>5.45</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
+      </c>
+      <c r="B37" s="11" t="n">
+        <v>44986.70179755787</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>173angularvrs</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-02</t>
+        </is>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>44987.44341578703</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>liveangular173</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B39" s="11" t="n">
+        <v>44998.84790481481</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>174live</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B40" s="11" t="n">
+        <v>45016.80041184028</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>175live</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>4.82</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
@@ -2490,30 +2490,57 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="5" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
       <c r="B74" s="11" t="n">
-        <v>45028.7219215049</v>
-      </c>
-      <c r="C74" t="inlineStr">
+        <v>45028.72192150463</v>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
         <is>
           <t>176fstrtail</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>165</v>
-      </c>
-      <c r="E74" t="n">
-        <v>165</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
+      <c r="D74" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E74" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F74" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="5" t="n">
         <v>4.3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B75" s="11" t="n">
+        <v>45034.60912425283</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>176firsttrail</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>165</v>
+      </c>
+      <c r="E75" t="n">
+        <v>165</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4.93</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
@@ -2517,30 +2517,84 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="5" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
       <c r="B75" s="11" t="n">
-        <v>45034.60912425283</v>
-      </c>
-      <c r="C75" t="inlineStr">
+        <v>45034.60912424768</v>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
         <is>
           <t>176firsttrail</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>165</v>
-      </c>
-      <c r="E75" t="n">
-        <v>165</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
+      <c r="D75" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E75" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F75" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5" t="n">
         <v>4.93</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B76" s="11" t="n">
+        <v>45035.71066576389</v>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>176scndcyc</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>164</v>
+      </c>
+      <c r="F76" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B77" s="11" t="n">
+        <v>45036.42039621528</v>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>176fnlruntest</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F77" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5" t="n">
+        <v>5.16</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
@@ -2557,7 +2611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3503,6 +3557,33 @@
         <v>4.77</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B35" s="11" t="n">
+        <v>45036.52886015047</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>176beta</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>5.13</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3517,7 +3598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4623,6 +4704,60 @@
       </c>
       <c r="G40" s="5" t="n">
         <v>4.82</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-04</t>
+        </is>
+      </c>
+      <c r="B41" s="11" t="n">
+        <v>45050.72406798611</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>176firstsycle</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+      <c r="B42" s="11" t="n">
+        <v>45054.54967030385</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>176htfxtrl</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>165</v>
+      </c>
+      <c r="E42" t="n">
+        <v>165</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4.58</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
@@ -2595,6 +2595,33 @@
       </c>
       <c r="G77" s="5" t="n">
         <v>5.16</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-05-12</t>
+        </is>
+      </c>
+      <c r="B78" s="11" t="n">
+        <v>45058.77603368364</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>177fstcycle</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>165</v>
+      </c>
+      <c r="E78" t="n">
+        <v>165</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.66</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
@@ -4734,29 +4761,29 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>2023-05-08</t>
         </is>
       </c>
       <c r="B42" s="11" t="n">
-        <v>45054.54967030385</v>
-      </c>
-      <c r="C42" t="inlineStr">
+        <v>45054.54967030093</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>176htfxtrl</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>165</v>
-      </c>
-      <c r="E42" t="n">
-        <v>165</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="D42" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="n">
         <v>4.58</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
@@ -2598,30 +2598,219 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="5" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
       <c r="B78" s="11" t="n">
-        <v>45058.77603368364</v>
-      </c>
-      <c r="C78" t="inlineStr">
+        <v>45058.77603368056</v>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
         <is>
           <t>177fstcycle</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>165</v>
-      </c>
-      <c r="E78" t="n">
-        <v>165</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
+      <c r="D78" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E78" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F78" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5" t="n">
         <v>5.66</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="B79" s="11" t="n">
+        <v>45062.83415686343</v>
+      </c>
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>177ffstcycle</t>
+        </is>
+      </c>
+      <c r="D79" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E79" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F79" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="5" t="n">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="B80" s="11" t="n">
+        <v>45063.67147292824</v>
+      </c>
+      <c r="C80" s="5" t="inlineStr">
+        <is>
+          <t>177scncycle</t>
+        </is>
+      </c>
+      <c r="D80" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E80" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F80" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B81" s="11" t="n">
+        <v>45064.37927949074</v>
+      </c>
+      <c r="C81" s="5" t="inlineStr">
+        <is>
+          <t>177fnlrun</t>
+        </is>
+      </c>
+      <c r="D81" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E81" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F81" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="5" t="n">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="B82" s="11" t="n">
+        <v>45071.64493096065</v>
+      </c>
+      <c r="C82" s="5" t="inlineStr">
+        <is>
+          <t>178dayone</t>
+        </is>
+      </c>
+      <c r="D82" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E82" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F82" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="5" t="n">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B83" s="11" t="n">
+        <v>45072.58217430556</v>
+      </c>
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>178daytwo</t>
+        </is>
+      </c>
+      <c r="D83" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E83" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F83" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="5" t="n">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-29</t>
+        </is>
+      </c>
+      <c r="B84" s="11" t="n">
+        <v>45075.48236773148</v>
+      </c>
+      <c r="C84" s="5" t="inlineStr">
+        <is>
+          <t>178daythree</t>
+        </is>
+      </c>
+      <c r="D84" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E84" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F84" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B85" s="11" t="n">
+        <v>45089.68276481173</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>178daytest</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>165</v>
+      </c>
+      <c r="E85" t="n">
+        <v>165</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5.62</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
@@ -2638,7 +2827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3611,6 +3800,33 @@
         <v>5.13</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B36" s="11" t="n">
+        <v>45064.51113704861</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>177beta</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3625,7 +3841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4785,6 +5001,33 @@
       </c>
       <c r="G42" s="5" t="n">
         <v>4.58</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B43" s="11" t="n">
+        <v>45065.59557585648</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>177live</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>4.44</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
@@ -2787,30 +2787,57 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="5" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
       <c r="B85" s="11" t="n">
-        <v>45089.68276481173</v>
-      </c>
-      <c r="C85" t="inlineStr">
+        <v>45089.68276481482</v>
+      </c>
+      <c r="C85" s="5" t="inlineStr">
         <is>
           <t>178daytest</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>165</v>
-      </c>
-      <c r="E85" t="n">
-        <v>165</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
+      <c r="D85" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E85" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F85" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5" t="n">
         <v>5.62</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B86" s="11" t="n">
+        <v>45138.41036032407</v>
+      </c>
+      <c r="C86" s="5" t="inlineStr">
+        <is>
+          <t>180fnlrun</t>
+        </is>
+      </c>
+      <c r="D86" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E86" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F86" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5" t="n">
+        <v>4.71</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
@@ -2827,7 +2854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3827,6 +3854,33 @@
         <v>5.01</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B37" s="11" t="n">
+        <v>45139.68541844907</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>180beta</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3841,7 +3895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -5028,6 +5082,33 @@
       </c>
       <c r="G43" s="5" t="n">
         <v>4.44</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B44" s="11" t="n">
+        <v>45139.85586977208</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>180live</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>165</v>
+      </c>
+      <c r="E44" t="n">
+        <v>165</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4.58</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
@@ -2840,6 +2840,492 @@
         <v>4.71</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B87" s="11" t="n">
+        <v>45202.62940472223</v>
+      </c>
+      <c r="C87" s="5" t="inlineStr">
+        <is>
+          <t>183runscnd</t>
+        </is>
+      </c>
+      <c r="D87" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E87" s="5" t="n">
+        <v>143</v>
+      </c>
+      <c r="F87" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="G87" s="5" t="n">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B88" s="11" t="n">
+        <v>45203.45634986111</v>
+      </c>
+      <c r="C88" s="5" t="inlineStr">
+        <is>
+          <t>183fnlrun</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E88" s="5" t="n">
+        <v>164</v>
+      </c>
+      <c r="F88" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="5" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B89" s="11" t="n">
+        <v>45226.64937826389</v>
+      </c>
+      <c r="C89" s="5" t="inlineStr">
+        <is>
+          <t>183fstrun</t>
+        </is>
+      </c>
+      <c r="D89" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E89" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="F89" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G89" s="5" t="n">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B90" s="11" t="n">
+        <v>45229.37052780093</v>
+      </c>
+      <c r="C90" s="5" t="inlineStr">
+        <is>
+          <t>184fnlrun</t>
+        </is>
+      </c>
+      <c r="D90" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E90" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F90" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="5" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B91" s="11" t="n">
+        <v>45258.74360445602</v>
+      </c>
+      <c r="C91" s="5" t="inlineStr">
+        <is>
+          <t>185scnddyle</t>
+        </is>
+      </c>
+      <c r="D91" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E91" s="5" t="n">
+        <v>164</v>
+      </c>
+      <c r="F91" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="5" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B92" s="11" t="n">
+        <v>45259.34853190972</v>
+      </c>
+      <c r="C92" s="5" t="inlineStr">
+        <is>
+          <t>185lastcyc</t>
+        </is>
+      </c>
+      <c r="D92" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E92" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F92" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="5" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B93" s="11" t="n">
+        <v>45278.44517530093</v>
+      </c>
+      <c r="C93" s="5" t="inlineStr">
+        <is>
+          <t>186fnlruun</t>
+        </is>
+      </c>
+      <c r="D93" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E93" s="5" t="n">
+        <v>157</v>
+      </c>
+      <c r="F93" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G93" s="5" t="n">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B94" s="11" t="n">
+        <v>45281.73311952547</v>
+      </c>
+      <c r="C94" s="5" t="inlineStr">
+        <is>
+          <t>smalvthapp111</t>
+        </is>
+      </c>
+      <c r="D94" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E94" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F94" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B95" s="11" t="n">
+        <v>45281.74511149306</v>
+      </c>
+      <c r="C95" s="5" t="inlineStr">
+        <is>
+          <t>smalvthapp111</t>
+        </is>
+      </c>
+      <c r="D95" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E95" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F95" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="5" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-09</t>
+        </is>
+      </c>
+      <c r="B96" s="11" t="n">
+        <v>45300.64097901621</v>
+      </c>
+      <c r="C96" s="5" t="inlineStr">
+        <is>
+          <t>187scndcycle</t>
+        </is>
+      </c>
+      <c r="D96" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E96" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="F96" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G96" s="5" t="n">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B97" s="11" t="n">
+        <v>45301.36032407408</v>
+      </c>
+      <c r="C97" s="5" t="inlineStr">
+        <is>
+          <t>187lstcycle</t>
+        </is>
+      </c>
+      <c r="D97" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E97" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F97" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="5" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B98" s="11" t="n">
+        <v>45323.67676335648</v>
+      </c>
+      <c r="C98" s="5" t="inlineStr">
+        <is>
+          <t>188firstcyc</t>
+        </is>
+      </c>
+      <c r="D98" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E98" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F98" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" s="5" t="n">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B99" s="11" t="n">
+        <v>45324.86025644676</v>
+      </c>
+      <c r="C99" s="5" t="inlineStr">
+        <is>
+          <t>188scndcycle</t>
+        </is>
+      </c>
+      <c r="D99" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E99" s="5" t="n">
+        <v>163</v>
+      </c>
+      <c r="F99" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G99" s="5" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B100" s="11" t="n">
+        <v>45327.43454721065</v>
+      </c>
+      <c r="C100" s="5" t="inlineStr">
+        <is>
+          <t>188lstrun</t>
+        </is>
+      </c>
+      <c r="D100" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E100" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F100" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" s="5" t="n">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B101" s="11" t="n">
+        <v>45344.61319638889</v>
+      </c>
+      <c r="C101" s="5" t="inlineStr">
+        <is>
+          <t>188lstrun</t>
+        </is>
+      </c>
+      <c r="D101" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E101" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F101" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" s="5" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B102" s="11" t="n">
+        <v>45357.75251993055</v>
+      </c>
+      <c r="C102" s="5" t="inlineStr">
+        <is>
+          <t>189ffstccycle</t>
+        </is>
+      </c>
+      <c r="D102" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E102" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F102" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" s="5" t="n">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B103" s="11" t="n">
+        <v>45358.6207505787</v>
+      </c>
+      <c r="C103" s="5" t="inlineStr">
+        <is>
+          <t>189scncycle</t>
+        </is>
+      </c>
+      <c r="D103" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E103" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F103" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" s="5" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B104" s="11" t="n">
+        <v>45359.38256143519</v>
+      </c>
+      <c r="C104" s="5" t="inlineStr">
+        <is>
+          <t>189fnlrun</t>
+        </is>
+      </c>
+      <c r="D104" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E104" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F104" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" s="5" t="n">
+        <v>5.03</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2854,7 +3340,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3881,6 +4367,195 @@
         <v>4.49</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>45203.56387074074</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>183beta</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B39" s="11" t="n">
+        <v>45229.61178648148</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>184beta</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B40" s="11" t="n">
+        <v>45259.62495461806</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>185beta</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B41" s="11" t="n">
+        <v>45278.54994658565</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>186beta</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B42" s="11" t="n">
+        <v>45301.58676706019</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>187betaa</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B43" s="11" t="n">
+        <v>45327.57720052083</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>188beta</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B44" s="11" t="n">
+        <v>45359.47450616898</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>189beta</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3895,7 +4570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -5085,30 +5760,219 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
       <c r="B44" s="11" t="n">
-        <v>45139.85586977208</v>
-      </c>
-      <c r="C44" t="inlineStr">
+        <v>45139.85586976852</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>180live</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>165</v>
-      </c>
-      <c r="E44" t="n">
-        <v>165</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="D44" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="n">
         <v>4.58</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B45" s="11" t="n">
+        <v>45203.9161981713</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>183live</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B46" s="11" t="n">
+        <v>45217.62145217592</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>183waf</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B47" s="11" t="n">
+        <v>45229.84574895833</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>184lliivvee</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>163</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B48" s="11" t="n">
+        <v>45259.88626122685</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>185live</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B49" s="11" t="n">
+        <v>45301.85920318287</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>187live</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B50" s="11" t="n">
+        <v>45327.90305763889</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>188live</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B51" s="11" t="n">
+        <v>45359.75790016494</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>189livee</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>165</v>
+      </c>
+      <c r="E51" t="n">
+        <v>165</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.31</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
@@ -3326,6 +3326,114 @@
         <v>5.03</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B105" s="11" t="n">
+        <v>45380.41803741898</v>
+      </c>
+      <c r="C105" s="5" t="inlineStr">
+        <is>
+          <t>190fstcycle</t>
+        </is>
+      </c>
+      <c r="D105" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E105" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F105" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" s="5" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B106" s="11" t="n">
+        <v>45383.3909468287</v>
+      </c>
+      <c r="C106" s="5" t="inlineStr">
+        <is>
+          <t>190fnlrun</t>
+        </is>
+      </c>
+      <c r="D106" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E106" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F106" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" s="5" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B107" s="11" t="n">
+        <v>45414.5163130787</v>
+      </c>
+      <c r="C107" s="5" t="inlineStr">
+        <is>
+          <t>191fstcycle</t>
+        </is>
+      </c>
+      <c r="D107" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E107" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F107" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" s="5" t="n">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B108" s="11" t="n">
+        <v>45415.36612339121</v>
+      </c>
+      <c r="C108" s="5" t="inlineStr">
+        <is>
+          <t>191lstrun</t>
+        </is>
+      </c>
+      <c r="D108" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E108" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F108" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" s="5" t="n">
+        <v>5.12</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3340,7 +3448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4556,6 +4664,60 @@
         <v>4.79</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B45" s="11" t="n">
+        <v>45383.5652150926</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>190betatest</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B46" s="11" t="n">
+        <v>45415.6327871711</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>191beta</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>165</v>
+      </c>
+      <c r="E46" t="n">
+        <v>165</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -4570,7 +4732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -5949,30 +6111,57 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="5" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
       <c r="B51" s="11" t="n">
-        <v>45359.75790016494</v>
-      </c>
-      <c r="C51" t="inlineStr">
+        <v>45359.75790016204</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
         <is>
           <t>189livee</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>165</v>
-      </c>
-      <c r="E51" t="n">
-        <v>165</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="D51" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5" t="n">
         <v>5.31</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B52" s="11" t="n">
+        <v>45383.87284549769</v>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>190livee</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>164</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>5.04</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -4692,29 +4692,29 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="5" t="inlineStr">
         <is>
           <t>2024-05-03</t>
         </is>
       </c>
       <c r="B46" s="11" t="n">
-        <v>45415.6327871711</v>
-      </c>
-      <c r="C46" t="inlineStr">
+        <v>45415.63278717593</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
         <is>
           <t>191beta</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>165</v>
-      </c>
-      <c r="E46" t="n">
-        <v>165</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="D46" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="n">
         <v>5.32</v>
       </c>
     </row>
@@ -4732,7 +4732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -6162,6 +6162,33 @@
       </c>
       <c r="G52" s="5" t="n">
         <v>5.04</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B53" s="11" t="n">
+        <v>45418.58594032792</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>191live</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>165</v>
+      </c>
+      <c r="E53" t="n">
+        <v>165</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4.76</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -4732,7 +4732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -6165,30 +6165,84 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="5" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
       <c r="B53" s="11" t="n">
-        <v>45418.58594032792</v>
-      </c>
-      <c r="C53" t="inlineStr">
+        <v>45418.58594032408</v>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
         <is>
           <t>191live</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>165</v>
-      </c>
-      <c r="E53" t="n">
-        <v>165</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
+      <c r="D53" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5" t="n">
         <v>4.76</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B54" s="11" t="n">
+        <v>45467.67552248843</v>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>193livepytest</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B55" s="11" t="n">
+        <v>45471.54364707602</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>193pyieghtsd</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>165</v>
+      </c>
+      <c r="E55" t="n">
+        <v>165</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.18</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UNLOCK_UPDATE_INTERVIEW_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
@@ -3434,6 +3434,60 @@
         <v>5.12</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B109" s="11" t="n">
+        <v>45489.66459667824</v>
+      </c>
+      <c r="C109" s="5" t="inlineStr">
+        <is>
+          <t>194fstcycle</t>
+        </is>
+      </c>
+      <c r="D109" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E109" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F109" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" s="5" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B110" s="11" t="n">
+        <v>45491.33295846065</v>
+      </c>
+      <c r="C110" s="5" t="inlineStr">
+        <is>
+          <t>194fnlrun</t>
+        </is>
+      </c>
+      <c r="D110" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E110" s="5" t="n">
+        <v>164</v>
+      </c>
+      <c r="F110" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" s="5" t="n">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3448,7 +3502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4716,6 +4770,33 @@
       </c>
       <c r="G46" s="5" t="n">
         <v>5.32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B47" s="11" t="n">
+        <v>45491.61969213543</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>194beta</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>165</v>
+      </c>
+      <c r="E47" t="n">
+        <v>165</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6.34</v>
       </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
@@ -6219,29 +6300,29 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="5" t="inlineStr">
         <is>
           <t>2024-06-28</t>
         </is>
       </c>
       <c r="B55" s="11" t="n">
-        <v>45471.54364707602</v>
-      </c>
-      <c r="C55" t="inlineStr">
+        <v>45471.54364707176</v>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>193pyieghtsd</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>165</v>
-      </c>
-      <c r="E55" t="n">
-        <v>165</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
+      <c r="D55" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5" t="n">
         <v>5.18</v>
       </c>
     </row>
